--- a/Location_based_analysis/under_wind/wsl_base.xlsx
+++ b/Location_based_analysis/under_wind/wsl_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Location_based_analysis\under_wind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF38693-DD18-4AF7-8265-DE7AF7A9840A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343501C3-909E-4541-8C7A-AFE73508BF07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -113,12 +113,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="K160" sqref="K160"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
